--- a/Hardware/Gen2Dev/OuterBoard/2.1/OuterBoard_rev2.1/BOM/2024-11-19T193146.xlsx
+++ b/Hardware/Gen2Dev/OuterBoard/2.1/OuterBoard_rev2.1/BOM/2024-11-19T193146.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rohankarunaratne/Documents/GitHub/Small_VineRobot_Electronics/Hardware/Gen2Dev/OuterBoard/2.1/OuterBoard_rev2.1/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E9B099-DDC0-7141-823A-EAFCA2ED3E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC18239-87B0-3A4D-87F8-1B17D7A1BF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3720" yWindow="1340" windowWidth="25600" windowHeight="19020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -847,7 +847,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Hardware/Gen2Dev/OuterBoard/2.1/OuterBoard_rev2.1/BOM/2024-11-19T193146.xlsx
+++ b/Hardware/Gen2Dev/OuterBoard/2.1/OuterBoard_rev2.1/BOM/2024-11-19T193146.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rohankarunaratne/Documents/GitHub/Small_VineRobot_Electronics/Hardware/Gen2Dev/OuterBoard/2.1/OuterBoard_rev2.1/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC18239-87B0-3A4D-87F8-1B17D7A1BF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65A9295-CD6F-CC42-9E87-E9FAD3467E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="1340" windowWidth="25600" windowHeight="19020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8080" yWindow="1240" windowWidth="25600" windowHeight="19020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="228">
   <si>
     <t>Index</t>
   </si>
@@ -41,24 +40,12 @@
     <t>Customer Reference</t>
   </si>
   <si>
-    <t>535-13159-1-ND</t>
-  </si>
-  <si>
-    <t>ASV-50.000MHZ-LCS-T</t>
-  </si>
-  <si>
-    <t>XTAL OSC XO 50.0000MHZ HCMOS SMD</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
     <t>ESP Oscillator</t>
   </si>
   <si>
-    <t>Spare USB 2.0</t>
-  </si>
-  <si>
     <t>732-5315-ND</t>
   </si>
   <si>
@@ -480,6 +467,243 @@
   </si>
   <si>
     <t>4.7uF 0805</t>
+  </si>
+  <si>
+    <t>J1, J2, J3, J4, J5, J6, J9, J12, J13, J14, J15, J16, J17, J18, J19, J20, J21, J22, J23, J24, J25, J26, J27, J28, J29, J30, J31, J32, J33, J34, J35, J36, J37, J38, J39, J40, J41, J43, J45, J46, J47, J48, J49, J50, J51, J52</t>
+  </si>
+  <si>
+    <t>ANT1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2, C10, C13, C19, C20, C23, C24, C25</t>
+  </si>
+  <si>
+    <t>C3, C4, C7, C8, C11, C16, C21, C22, C26, C27</t>
+  </si>
+  <si>
+    <t>1uF 0805</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10uF Through Hole </t>
+  </si>
+  <si>
+    <t>C9, C12, C34, C36, C39</t>
+  </si>
+  <si>
+    <t>0.1uF 0603</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>C14, C15, C17, C32, C37, C38, C40, C42, C44, C28, C29</t>
+  </si>
+  <si>
+    <t>C30, C31</t>
+  </si>
+  <si>
+    <t>C33, C35</t>
+  </si>
+  <si>
+    <t>C41</t>
+  </si>
+  <si>
+    <t>10nF 0805</t>
+  </si>
+  <si>
+    <t>C43, C45</t>
+  </si>
+  <si>
+    <t>D1, D2, D3, D4, D5, D6, D8, D15</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D9, D10, D11, D12, D13, D14</t>
+  </si>
+  <si>
+    <t>FB1</t>
+  </si>
+  <si>
+    <t>J7, J8</t>
+  </si>
+  <si>
+    <t>Battery Connector</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>J42</t>
+  </si>
+  <si>
+    <t>J44</t>
+  </si>
+  <si>
+    <t>L1, L2</t>
+  </si>
+  <si>
+    <t>R1, R4</t>
+  </si>
+  <si>
+    <t>R2, R3</t>
+  </si>
+  <si>
+    <t>R5, R10, R11, R12, R13, R14, R16, R17, R18, R19</t>
+  </si>
+  <si>
+    <t>R6, R8</t>
+  </si>
+  <si>
+    <t>0 Ohm</t>
+  </si>
+  <si>
+    <t>R7, R9</t>
+  </si>
+  <si>
+    <t>R15, R20, R22, R23, R24, R25</t>
+  </si>
+  <si>
+    <t>R26, R27</t>
+  </si>
+  <si>
+    <t>R31</t>
+  </si>
+  <si>
+    <t>SW1, SW2</t>
+  </si>
+  <si>
+    <t>U1, U3</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>FTDI</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMU </t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>U11</t>
+  </si>
+  <si>
+    <t>XTAL1</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>ABM8G-40.000MHZ-18-D2Y-T</t>
+  </si>
+  <si>
+    <t>CRYSTAL 40.0000MHZ 18PF SMD</t>
+  </si>
+  <si>
+    <t>535-10281-1-ND</t>
+  </si>
+  <si>
+    <t>Spare USB 2.0 for Akemi</t>
+  </si>
+  <si>
+    <t>828-1058-1-ND</t>
+  </si>
+  <si>
+    <t>BNO055</t>
+  </si>
+  <si>
+    <t>IMU ACCEL/GYRO/MAG I2C 28LGA</t>
+  </si>
+  <si>
+    <t>311-0.0ARCT-ND</t>
+  </si>
+  <si>
+    <t>RC0805JR-070RL</t>
+  </si>
+  <si>
+    <t>RES 0 OHM JUMPER 1/8W 0805</t>
+  </si>
+  <si>
+    <t>768-1008-1-ND</t>
+  </si>
+  <si>
+    <t>FT232RQ-REEL</t>
+  </si>
+  <si>
+    <t>IC USB FS SERIAL UART 32-QFN</t>
+  </si>
+  <si>
+    <t>WM1731-ND</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 2POS 1.25MM</t>
+  </si>
+  <si>
+    <t>399-C0805X103K1RAC3316CT-ND</t>
+  </si>
+  <si>
+    <t>C0805X103K1RAC3316</t>
+  </si>
+  <si>
+    <t>CAP CER 0805 10NF 100V X7R</t>
+  </si>
+  <si>
+    <t>311-1088-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R7BB104</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 16V X7R 0603</t>
+  </si>
+  <si>
+    <t>1189-1894-ND</t>
+  </si>
+  <si>
+    <t>450BXC10MEFC10X20</t>
+  </si>
+  <si>
+    <t>CAP ALUM 10UF 20% 450V RADIAL TH</t>
+  </si>
+  <si>
+    <t>490-6123-1-ND</t>
+  </si>
+  <si>
+    <t>GRM0335C1H220JA01D</t>
+  </si>
+  <si>
+    <t>CAP CER 22PF 50V C0G/NP0 0201</t>
   </si>
 </sst>
 </file>
@@ -844,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -883,7 +1107,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -901,7 +1125,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="4" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -915,18 +1139,22 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="D3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="H3" s="2"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -937,16 +1165,19 @@
         <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>61300211121</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>149</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -957,16 +1188,16 @@
         <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -977,16 +1208,19 @@
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -997,16 +1231,19 @@
         <v>50</v>
       </c>
       <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1017,16 +1254,19 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>152</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1037,16 +1277,19 @@
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>188</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1057,16 +1300,19 @@
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>178</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1077,16 +1323,19 @@
         <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1097,16 +1346,19 @@
         <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>190</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1117,16 +1369,19 @@
         <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>184</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1137,16 +1392,19 @@
         <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>169</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1157,16 +1415,19 @@
         <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="F15" t="s">
+        <v>192</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1177,16 +1438,19 @@
         <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>191</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1197,16 +1461,19 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="F17" t="s">
+        <v>175</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1217,16 +1484,19 @@
         <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>65</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1237,16 +1507,19 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="F19" t="s">
+        <v>176</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1257,16 +1530,19 @@
         <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>73</v>
+      </c>
+      <c r="F20" t="s">
+        <v>174</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1274,16 +1550,19 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="F21" t="s">
+        <v>187</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1291,16 +1570,19 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>81</v>
+      </c>
+      <c r="F22" t="s">
+        <v>180</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1308,16 +1590,19 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>85</v>
+      </c>
+      <c r="F23" t="s">
+        <v>189</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1325,16 +1610,16 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1342,16 +1627,19 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="F25" t="s">
+        <v>179</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1359,16 +1647,19 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>94</v>
+      </c>
+      <c r="F26" t="s">
+        <v>198</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1376,16 +1667,19 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="F27" t="s">
+        <v>150</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1393,16 +1687,19 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="F28" t="s">
+        <v>163</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1410,16 +1707,19 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E29" t="s">
-        <v>110</v>
+        <v>106</v>
+      </c>
+      <c r="F29" t="s">
+        <v>197</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1427,19 +1727,22 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="D30" t="s">
-        <v>113</v>
-      </c>
-      <c r="E30" t="s">
-        <v>114</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1447,16 +1750,19 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+      <c r="F31" t="s">
+        <v>158</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1464,16 +1770,19 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E32" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="F32" t="s">
+        <v>166</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1481,16 +1790,19 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E33" t="s">
-        <v>127</v>
+        <v>123</v>
+      </c>
+      <c r="F33" t="s">
+        <v>186</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1498,16 +1810,19 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D34" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E34" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="F34" t="s">
+        <v>199</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1515,16 +1830,19 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D35" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E35" t="s">
-        <v>136</v>
+        <v>132</v>
+      </c>
+      <c r="F35" t="s">
+        <v>173</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1532,16 +1850,19 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E36" t="s">
-        <v>140</v>
+        <v>136</v>
+      </c>
+      <c r="F36" t="s">
+        <v>170</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1549,16 +1870,19 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E37" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+      <c r="F37" t="s">
+        <v>168</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1566,16 +1890,19 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D38" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E38" t="s">
-        <v>148</v>
+        <v>144</v>
+      </c>
+      <c r="F38" t="s">
+        <v>183</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1583,24 +1910,199 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D39" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E39" t="s">
-        <v>151</v>
+        <v>147</v>
+      </c>
+      <c r="F39" t="s">
+        <v>160</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
+      <c r="C40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D40" t="s">
+        <v>226</v>
+      </c>
+      <c r="E40" t="s">
+        <v>227</v>
+      </c>
+      <c r="F40" t="s">
+        <v>162</v>
+      </c>
       <c r="G40" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" t="s">
+        <v>153</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" t="s">
+        <v>223</v>
+      </c>
+      <c r="E42" t="s">
+        <v>224</v>
+      </c>
+      <c r="F42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D43" t="s">
+        <v>220</v>
+      </c>
+      <c r="E43" t="s">
+        <v>221</v>
+      </c>
+      <c r="F43" t="s">
+        <v>155</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>216</v>
+      </c>
+      <c r="D44" t="s">
+        <v>217</v>
+      </c>
+      <c r="E44" t="s">
+        <v>218</v>
+      </c>
+      <c r="F44" t="s">
+        <v>164</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45">
+        <v>530470210</v>
+      </c>
+      <c r="E45" t="s">
+        <v>215</v>
+      </c>
+      <c r="F45" t="s">
+        <v>171</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>211</v>
+      </c>
+      <c r="D46" t="s">
+        <v>212</v>
+      </c>
+      <c r="E46" t="s">
+        <v>213</v>
+      </c>
+      <c r="F46" t="s">
+        <v>193</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>208</v>
+      </c>
+      <c r="D47" t="s">
+        <v>209</v>
+      </c>
+      <c r="E47" t="s">
+        <v>210</v>
+      </c>
+      <c r="F47" t="s">
+        <v>181</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>205</v>
+      </c>
+      <c r="D48" t="s">
+        <v>206</v>
+      </c>
+      <c r="E48" t="s">
+        <v>207</v>
+      </c>
+      <c r="F48" t="s">
+        <v>195</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
